--- a/Teams/Tottenham_stats.xlsx
+++ b/Teams/Tottenham_stats.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ShootingStats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassingStats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassTypes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GoalShotCreation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefensiveActions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlayingTime" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiscStats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25-188</t>
+          <t>25-189</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-329</t>
+          <t>24-330</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>32-255</t>
+          <t>32-256</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22-112</t>
+          <t>22-113</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27-187</t>
+          <t>27-188</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23-301</t>
+          <t>23-302</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -5987,7 +5987,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28-164</t>
+          <t>28-165</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-117</t>
+          <t>28-118</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22-187</t>
+          <t>22-188</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-268</t>
+          <t>27-269</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -6311,7 +6311,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-045</t>
+          <t>23-046</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>28-202</t>
+          <t>28-203</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26-327</t>
+          <t>26-328</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -6554,7 +6554,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>19-008</t>
+          <t>19-009</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24-223</t>
+          <t>24-224</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-335</t>
+          <t>23-336</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -6797,7 +6797,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19-046</t>
+          <t>19-047</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>31-330</t>
+          <t>31-331</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37-003</t>
+          <t>37-004</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>29-014</t>
+          <t>29-015</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>22-007</t>
+          <t>22-008</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -7202,7 +7202,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20-112</t>
+          <t>20-113</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26-182</t>
+          <t>26-183</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -7364,7 +7364,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19-327</t>
+          <t>19-328</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -7445,7 +7445,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17-221</t>
+          <t>17-222</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -7607,7 +7607,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>26-071</t>
+          <t>26-072</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -7688,7 +7688,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-095</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>20-361</t>
+          <t>20-362</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>19-334</t>
+          <t>19-335</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -7929,7 +7929,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>19-334</t>
+          <t>19-335</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -8172,10 +8172,14 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 4_level_0</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Playing Time</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="inlineStr">
@@ -8419,7 +8423,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25-188</t>
+          <t>25-189</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -8536,7 +8540,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-329</t>
+          <t>24-330</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -8653,7 +8657,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>32-255</t>
+          <t>32-256</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -8770,7 +8774,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22-112</t>
+          <t>22-113</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -8887,7 +8891,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27-187</t>
+          <t>27-188</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -9004,7 +9008,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23-301</t>
+          <t>23-302</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -9121,7 +9125,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28-164</t>
+          <t>28-165</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -9238,7 +9242,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-117</t>
+          <t>28-118</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -9355,7 +9359,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22-187</t>
+          <t>22-188</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -9472,7 +9476,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-268</t>
+          <t>27-269</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -9589,7 +9593,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-045</t>
+          <t>23-046</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -9706,7 +9710,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>28-202</t>
+          <t>28-203</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -9823,7 +9827,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26-327</t>
+          <t>26-328</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -9940,7 +9944,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>19-008</t>
+          <t>19-009</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -10057,7 +10061,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24-223</t>
+          <t>24-224</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -10174,7 +10178,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-335</t>
+          <t>23-336</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -10291,7 +10295,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19-046</t>
+          <t>19-047</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -10408,7 +10412,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>31-330</t>
+          <t>31-331</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -10525,7 +10529,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37-003</t>
+          <t>37-004</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -10642,7 +10646,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>29-014</t>
+          <t>29-015</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -10759,7 +10763,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>22-007</t>
+          <t>22-008</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -10876,7 +10880,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20-112</t>
+          <t>20-113</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -10993,7 +10997,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26-182</t>
+          <t>26-183</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -11110,7 +11114,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19-327</t>
+          <t>19-328</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -11227,7 +11231,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -11344,7 +11348,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17-221</t>
+          <t>17-222</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -11461,7 +11465,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>26-071</t>
+          <t>26-072</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -11578,7 +11582,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-095</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -11695,7 +11699,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>20-361</t>
+          <t>20-362</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -11812,7 +11816,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>19-334</t>
+          <t>19-335</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -11929,7 +11933,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>19-334</t>
+          <t>19-335</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -12046,7 +12050,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>19-083</t>
+          <t>19-084</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -12109,7 +12113,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>20-272</t>
+          <t>20-273</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -12172,7 +12176,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>20-231</t>
+          <t>20-232</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -12235,7 +12239,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>17-010</t>
+          <t>17-011</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -12298,7 +12302,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>19-192</t>
+          <t>19-193</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -12361,7 +12365,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>18-338</t>
+          <t>18-339</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -12424,7 +12428,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>18-062</t>
+          <t>18-063</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -12487,7 +12491,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>26-169</t>
+          <t>26-170</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -12550,7 +12554,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>16-170</t>
+          <t>16-171</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -12805,9 +12809,9 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="Y1:AH1"/>
-    <mergeCell ref="F1:I1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13025,7 +13029,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25-188</t>
+          <t>25-189</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -13109,7 +13113,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-329</t>
+          <t>24-330</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -13193,7 +13197,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>32-255</t>
+          <t>32-256</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -13277,7 +13281,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22-112</t>
+          <t>22-113</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -13361,7 +13365,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27-187</t>
+          <t>27-188</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -13445,7 +13449,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23-301</t>
+          <t>23-302</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -13529,7 +13533,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28-164</t>
+          <t>28-165</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -13603,7 +13607,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-117</t>
+          <t>28-118</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -13687,7 +13691,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22-187</t>
+          <t>22-188</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -13771,7 +13775,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-268</t>
+          <t>27-269</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -13855,7 +13859,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-045</t>
+          <t>23-046</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -13939,7 +13943,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>28-202</t>
+          <t>28-203</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -14023,7 +14027,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26-327</t>
+          <t>26-328</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -14107,7 +14111,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>19-008</t>
+          <t>19-009</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -14191,7 +14195,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24-223</t>
+          <t>24-224</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -14275,7 +14279,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-335</t>
+          <t>23-336</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -14359,7 +14363,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19-046</t>
+          <t>19-047</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -14443,7 +14447,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>31-330</t>
+          <t>31-331</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -14527,7 +14531,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37-003</t>
+          <t>37-004</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -14601,7 +14605,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>29-014</t>
+          <t>29-015</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -14685,7 +14689,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>22-007</t>
+          <t>22-008</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -14759,7 +14763,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20-112</t>
+          <t>20-113</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -14843,7 +14847,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26-182</t>
+          <t>26-183</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -14927,7 +14931,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19-327</t>
+          <t>19-328</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -15011,7 +15015,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -15095,7 +15099,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17-221</t>
+          <t>17-222</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -15177,7 +15181,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>26-071</t>
+          <t>26-072</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -15251,7 +15255,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-095</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -15333,7 +15337,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>20-361</t>
+          <t>20-362</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -15417,7 +15421,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>19-334</t>
+          <t>19-335</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -15491,7 +15495,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>19-334</t>
+          <t>19-335</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -15984,7 +15988,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25-188</t>
+          <t>25-189</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -16086,7 +16090,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-329</t>
+          <t>24-330</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -16188,7 +16192,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>32-255</t>
+          <t>32-256</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -16290,7 +16294,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22-112</t>
+          <t>22-113</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -16392,7 +16396,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27-187</t>
+          <t>27-188</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -16494,7 +16498,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23-301</t>
+          <t>23-302</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -16596,7 +16600,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28-164</t>
+          <t>28-165</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -16698,7 +16702,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-117</t>
+          <t>28-118</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -16800,7 +16804,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22-187</t>
+          <t>22-188</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -16902,7 +16906,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-268</t>
+          <t>27-269</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -17004,7 +17008,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-045</t>
+          <t>23-046</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -17106,7 +17110,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>28-202</t>
+          <t>28-203</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -17208,7 +17212,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26-327</t>
+          <t>26-328</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -17310,7 +17314,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>19-008</t>
+          <t>19-009</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -17412,7 +17416,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24-223</t>
+          <t>24-224</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -17514,7 +17518,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-335</t>
+          <t>23-336</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -17616,7 +17620,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19-046</t>
+          <t>19-047</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -17718,7 +17722,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>31-330</t>
+          <t>31-331</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -17820,7 +17824,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37-003</t>
+          <t>37-004</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -17922,7 +17926,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>29-014</t>
+          <t>29-015</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -18024,7 +18028,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>22-007</t>
+          <t>22-008</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -18126,7 +18130,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20-112</t>
+          <t>20-113</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -18228,7 +18232,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26-182</t>
+          <t>26-183</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -18330,7 +18334,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19-327</t>
+          <t>19-328</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -18432,7 +18436,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -18534,7 +18538,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17-221</t>
+          <t>17-222</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -18636,7 +18640,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>26-071</t>
+          <t>26-072</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -18738,7 +18742,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-095</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -18840,7 +18844,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>20-361</t>
+          <t>20-362</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -18942,7 +18946,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>19-334</t>
+          <t>19-335</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -19044,7 +19048,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>19-334</t>
+          <t>19-335</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -19520,7 +19524,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25-188</t>
+          <t>25-189</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -19598,7 +19602,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-329</t>
+          <t>24-330</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -19676,7 +19680,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>32-255</t>
+          <t>32-256</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -19754,7 +19758,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22-112</t>
+          <t>22-113</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -19832,7 +19836,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27-187</t>
+          <t>27-188</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -19910,7 +19914,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23-301</t>
+          <t>23-302</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -19988,7 +19992,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28-164</t>
+          <t>28-165</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -20066,7 +20070,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-117</t>
+          <t>28-118</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -20144,7 +20148,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22-187</t>
+          <t>22-188</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -20222,7 +20226,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-268</t>
+          <t>27-269</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -20300,7 +20304,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-045</t>
+          <t>23-046</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -20378,7 +20382,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>28-202</t>
+          <t>28-203</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -20456,7 +20460,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26-327</t>
+          <t>26-328</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -20534,7 +20538,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>19-008</t>
+          <t>19-009</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -20612,7 +20616,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24-223</t>
+          <t>24-224</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -20690,7 +20694,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-335</t>
+          <t>23-336</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -20768,7 +20772,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19-046</t>
+          <t>19-047</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -20846,7 +20850,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>31-330</t>
+          <t>31-331</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -20924,7 +20928,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37-003</t>
+          <t>37-004</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -21002,7 +21006,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>29-014</t>
+          <t>29-015</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -21080,7 +21084,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>22-007</t>
+          <t>22-008</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -21158,7 +21162,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20-112</t>
+          <t>20-113</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -21236,7 +21240,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26-182</t>
+          <t>26-183</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -21314,7 +21318,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19-327</t>
+          <t>19-328</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -21392,7 +21396,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -21470,7 +21474,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17-221</t>
+          <t>17-222</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -21548,7 +21552,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>26-071</t>
+          <t>26-072</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -21626,7 +21630,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-095</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -21704,7 +21708,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>20-361</t>
+          <t>20-362</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -21782,7 +21786,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>19-334</t>
+          <t>19-335</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -21860,7 +21864,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>19-334</t>
+          <t>19-335</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -22272,7 +22276,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25-188</t>
+          <t>25-189</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -22353,7 +22357,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-329</t>
+          <t>24-330</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -22434,7 +22438,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>32-255</t>
+          <t>32-256</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -22515,7 +22519,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22-112</t>
+          <t>22-113</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -22596,7 +22600,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27-187</t>
+          <t>27-188</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -22677,7 +22681,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23-301</t>
+          <t>23-302</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -22758,7 +22762,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28-164</t>
+          <t>28-165</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -22839,7 +22843,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-117</t>
+          <t>28-118</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -22920,7 +22924,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22-187</t>
+          <t>22-188</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -23001,7 +23005,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-268</t>
+          <t>27-269</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -23082,7 +23086,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-045</t>
+          <t>23-046</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -23163,7 +23167,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>28-202</t>
+          <t>28-203</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -23244,7 +23248,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26-327</t>
+          <t>26-328</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -23325,7 +23329,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>19-008</t>
+          <t>19-009</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -23406,7 +23410,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24-223</t>
+          <t>24-224</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -23487,7 +23491,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-335</t>
+          <t>23-336</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -23568,7 +23572,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19-046</t>
+          <t>19-047</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -23649,7 +23653,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>31-330</t>
+          <t>31-331</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -23730,7 +23734,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37-003</t>
+          <t>37-004</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -23811,7 +23815,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>29-014</t>
+          <t>29-015</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -23892,7 +23896,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>22-007</t>
+          <t>22-008</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -23973,7 +23977,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20-112</t>
+          <t>20-113</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -24054,7 +24058,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26-182</t>
+          <t>26-183</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -24135,7 +24139,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19-327</t>
+          <t>19-328</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -24216,7 +24220,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -24297,7 +24301,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17-221</t>
+          <t>17-222</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -24378,7 +24382,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>26-071</t>
+          <t>26-072</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -24459,7 +24463,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-095</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -24540,7 +24544,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>20-361</t>
+          <t>20-362</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -24621,7 +24625,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>19-334</t>
+          <t>19-335</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -24702,7 +24706,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>19-334</t>
+          <t>19-335</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -25136,7 +25140,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25-188</t>
+          <t>25-189</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -25217,7 +25221,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-329</t>
+          <t>24-330</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -25298,7 +25302,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>32-255</t>
+          <t>32-256</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -25379,7 +25383,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22-112</t>
+          <t>22-113</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -25460,7 +25464,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27-187</t>
+          <t>27-188</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -25541,7 +25545,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23-301</t>
+          <t>23-302</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -25622,7 +25626,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28-164</t>
+          <t>28-165</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -25701,7 +25705,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-117</t>
+          <t>28-118</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -25782,7 +25786,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22-187</t>
+          <t>22-188</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -25863,7 +25867,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-268</t>
+          <t>27-269</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -25944,7 +25948,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-045</t>
+          <t>23-046</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -26025,7 +26029,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>28-202</t>
+          <t>28-203</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -26106,7 +26110,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26-327</t>
+          <t>26-328</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -26187,7 +26191,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>19-008</t>
+          <t>19-009</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -26268,7 +26272,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24-223</t>
+          <t>24-224</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -26349,7 +26353,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-335</t>
+          <t>23-336</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -26430,7 +26434,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19-046</t>
+          <t>19-047</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -26511,7 +26515,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>31-330</t>
+          <t>31-331</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -26592,7 +26596,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37-003</t>
+          <t>37-004</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -26673,7 +26677,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>29-014</t>
+          <t>29-015</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -26754,7 +26758,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>22-007</t>
+          <t>22-008</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -26835,7 +26839,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20-112</t>
+          <t>20-113</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -26916,7 +26920,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26-182</t>
+          <t>26-183</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -26997,7 +27001,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19-327</t>
+          <t>19-328</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -27078,7 +27082,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -27157,7 +27161,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17-221</t>
+          <t>17-222</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -27238,7 +27242,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>26-071</t>
+          <t>26-072</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -27317,7 +27321,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-095</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -27398,7 +27402,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>20-361</t>
+          <t>20-362</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -27477,7 +27481,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>19-334</t>
+          <t>19-335</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -27556,7 +27560,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>19-334</t>
+          <t>19-335</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -28011,7 +28015,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25-188</t>
+          <t>25-189</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -28110,7 +28114,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-329</t>
+          <t>24-330</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -28209,7 +28213,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>32-255</t>
+          <t>32-256</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -28308,7 +28312,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22-112</t>
+          <t>22-113</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -28407,7 +28411,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27-187</t>
+          <t>27-188</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -28506,7 +28510,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23-301</t>
+          <t>23-302</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -28605,7 +28609,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28-164</t>
+          <t>28-165</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -28704,7 +28708,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-117</t>
+          <t>28-118</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -28803,7 +28807,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22-187</t>
+          <t>22-188</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -28902,7 +28906,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-268</t>
+          <t>27-269</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -29001,7 +29005,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-045</t>
+          <t>23-046</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -29100,7 +29104,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>28-202</t>
+          <t>28-203</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -29199,7 +29203,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26-327</t>
+          <t>26-328</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -29298,7 +29302,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>19-008</t>
+          <t>19-009</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -29397,7 +29401,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24-223</t>
+          <t>24-224</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -29496,7 +29500,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-335</t>
+          <t>23-336</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -29595,7 +29599,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19-046</t>
+          <t>19-047</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -29694,7 +29698,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>31-330</t>
+          <t>31-331</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -29793,7 +29797,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37-003</t>
+          <t>37-004</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -29892,7 +29896,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>29-014</t>
+          <t>29-015</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -29991,7 +29995,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>22-007</t>
+          <t>22-008</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -30086,7 +30090,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20-112</t>
+          <t>20-113</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -30185,7 +30189,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26-182</t>
+          <t>26-183</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -30284,7 +30288,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19-327</t>
+          <t>19-328</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -30383,7 +30387,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -30482,7 +30486,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17-221</t>
+          <t>17-222</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -30581,7 +30585,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>26-071</t>
+          <t>26-072</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -30676,7 +30680,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-095</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -30775,7 +30779,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>20-361</t>
+          <t>20-362</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -30870,7 +30874,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>19-334</t>
+          <t>19-335</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -30965,7 +30969,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>19-334</t>
+          <t>19-335</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -31262,10 +31266,14 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 4_level_0</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Playing Time</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="inlineStr">
@@ -31509,7 +31517,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25-188</t>
+          <t>25-189</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -31626,7 +31634,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-329</t>
+          <t>24-330</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -31743,7 +31751,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>32-255</t>
+          <t>32-256</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -31860,7 +31868,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22-112</t>
+          <t>22-113</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -31977,7 +31985,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27-187</t>
+          <t>27-188</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -32094,7 +32102,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23-301</t>
+          <t>23-302</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -32211,7 +32219,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28-164</t>
+          <t>28-165</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -32328,7 +32336,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-117</t>
+          <t>28-118</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -32445,7 +32453,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22-187</t>
+          <t>22-188</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -32562,7 +32570,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-268</t>
+          <t>27-269</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -32679,7 +32687,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-045</t>
+          <t>23-046</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -32796,7 +32804,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>28-202</t>
+          <t>28-203</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -32913,7 +32921,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26-327</t>
+          <t>26-328</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -33030,7 +33038,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>19-008</t>
+          <t>19-009</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -33147,7 +33155,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24-223</t>
+          <t>24-224</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -33264,7 +33272,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-335</t>
+          <t>23-336</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -33381,7 +33389,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19-046</t>
+          <t>19-047</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -33498,7 +33506,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>31-330</t>
+          <t>31-331</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -33615,7 +33623,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37-003</t>
+          <t>37-004</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -33732,7 +33740,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>29-014</t>
+          <t>29-015</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -33849,7 +33857,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>22-007</t>
+          <t>22-008</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -33966,7 +33974,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20-112</t>
+          <t>20-113</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -34083,7 +34091,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26-182</t>
+          <t>26-183</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -34200,7 +34208,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19-327</t>
+          <t>19-328</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -34317,7 +34325,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -34434,7 +34442,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17-221</t>
+          <t>17-222</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -34551,7 +34559,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>26-071</t>
+          <t>26-072</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -34668,7 +34676,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-095</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -34785,7 +34793,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>20-361</t>
+          <t>20-362</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -34902,7 +34910,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>19-334</t>
+          <t>19-335</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -35019,7 +35027,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>19-334</t>
+          <t>19-335</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -35136,7 +35144,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>19-083</t>
+          <t>19-084</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -35199,7 +35207,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>20-272</t>
+          <t>20-273</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -35262,7 +35270,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>20-231</t>
+          <t>20-232</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -35325,7 +35333,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>17-010</t>
+          <t>17-011</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -35388,7 +35396,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>19-192</t>
+          <t>19-193</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -35451,7 +35459,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>18-338</t>
+          <t>18-339</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -35514,7 +35522,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>18-062</t>
+          <t>18-063</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -35577,7 +35585,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>26-169</t>
+          <t>26-170</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -35640,7 +35648,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>16-170</t>
+          <t>16-171</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -35895,9 +35903,9 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="Y1:AH1"/>
-    <mergeCell ref="F1:I1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Teams/Tottenham_stats.xlsx
+++ b/Teams/Tottenham_stats.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-192</t>
+          <t>25-195</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-333</t>
+          <t>24-336</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>32-259</t>
+          <t>32-262</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22-116</t>
+          <t>22-119</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>27-191</t>
+          <t>27-194</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23-305</t>
+          <t>23-308</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28-168</t>
+          <t>28-171</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-121</t>
+          <t>28-124</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22-191</t>
+          <t>22-194</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-272</t>
+          <t>27-275</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-049</t>
+          <t>23-052</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>28-206</t>
+          <t>28-209</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26-331</t>
+          <t>26-334</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19-012</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -5828,7 +5828,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24-227</t>
+          <t>24-230</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-339</t>
+          <t>23-342</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -5970,7 +5970,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19-050</t>
+          <t>19-053</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>31-334</t>
+          <t>31-337</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37-007</t>
+          <t>37-010</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>29-018</t>
+          <t>29-021</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>22-011</t>
+          <t>22-014</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -6325,7 +6325,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20-116</t>
+          <t>20-119</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26-186</t>
+          <t>26-189</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19-331</t>
+          <t>19-334</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -6538,7 +6538,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17-225</t>
+          <t>17-228</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -6680,7 +6680,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26-075</t>
+          <t>26-078</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -6751,7 +6751,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28-098</t>
+          <t>28-101</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -6822,7 +6822,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>21-000</t>
+          <t>21-003</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19-338</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19-338</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -7407,7 +7407,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-192</t>
+          <t>25-195</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-333</t>
+          <t>24-336</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>32-259</t>
+          <t>32-262</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -7728,7 +7728,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22-116</t>
+          <t>22-119</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>27-191</t>
+          <t>27-194</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -7942,7 +7942,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23-305</t>
+          <t>23-308</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -8049,7 +8049,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28-168</t>
+          <t>28-171</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-121</t>
+          <t>28-124</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22-191</t>
+          <t>22-194</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-272</t>
+          <t>27-275</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -8477,7 +8477,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-049</t>
+          <t>23-052</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>28-206</t>
+          <t>28-209</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -8691,7 +8691,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26-331</t>
+          <t>26-334</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -8798,7 +8798,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19-012</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24-227</t>
+          <t>24-230</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-339</t>
+          <t>23-342</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -9119,7 +9119,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19-050</t>
+          <t>19-053</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -9226,7 +9226,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>31-334</t>
+          <t>31-337</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37-007</t>
+          <t>37-010</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>29-018</t>
+          <t>29-021</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>22-011</t>
+          <t>22-014</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -9654,7 +9654,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20-116</t>
+          <t>20-119</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26-186</t>
+          <t>26-189</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19-331</t>
+          <t>19-334</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -9975,7 +9975,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -10082,7 +10082,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17-225</t>
+          <t>17-228</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -10189,7 +10189,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26-075</t>
+          <t>26-078</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -10296,7 +10296,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28-098</t>
+          <t>28-101</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>21-000</t>
+          <t>21-003</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -10510,7 +10510,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19-338</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -10617,7 +10617,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19-338</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>19-087</t>
+          <t>19-090</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>20-276</t>
+          <t>20-279</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -10830,7 +10830,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>20-235</t>
+          <t>20-238</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>17-014</t>
+          <t>17-017</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>19-196</t>
+          <t>19-199</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -10989,7 +10989,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>18-342</t>
+          <t>18-345</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -11042,7 +11042,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>18-066</t>
+          <t>18-069</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>26-173</t>
+          <t>26-176</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -11148,7 +11148,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>16-174</t>
+          <t>16-177</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -11574,7 +11574,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-192</t>
+          <t>25-195</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -11648,7 +11648,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-333</t>
+          <t>24-336</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -11722,7 +11722,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>32-259</t>
+          <t>32-262</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22-116</t>
+          <t>22-119</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -11870,7 +11870,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>27-191</t>
+          <t>27-194</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23-305</t>
+          <t>23-308</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12018,7 +12018,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28-168</t>
+          <t>28-171</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -12082,7 +12082,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-121</t>
+          <t>28-124</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -12156,7 +12156,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22-191</t>
+          <t>22-194</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-272</t>
+          <t>27-275</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -12304,7 +12304,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-049</t>
+          <t>23-052</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -12378,7 +12378,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>28-206</t>
+          <t>28-209</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26-331</t>
+          <t>26-334</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -12526,7 +12526,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19-012</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -12600,7 +12600,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24-227</t>
+          <t>24-230</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -12674,7 +12674,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-339</t>
+          <t>23-342</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -12748,7 +12748,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19-050</t>
+          <t>19-053</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -12822,7 +12822,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>31-334</t>
+          <t>31-337</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -12896,7 +12896,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37-007</t>
+          <t>37-010</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -12960,7 +12960,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>29-018</t>
+          <t>29-021</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -13034,7 +13034,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>22-011</t>
+          <t>22-014</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20-116</t>
+          <t>20-119</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -13172,7 +13172,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26-186</t>
+          <t>26-189</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -13246,7 +13246,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19-331</t>
+          <t>19-334</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -13320,7 +13320,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -13394,7 +13394,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17-225</t>
+          <t>17-228</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -13466,7 +13466,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26-075</t>
+          <t>26-078</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -13530,7 +13530,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28-098</t>
+          <t>28-101</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -13602,7 +13602,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>21-000</t>
+          <t>21-003</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19-338</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -13740,7 +13740,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19-338</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -14156,7 +14156,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-192</t>
+          <t>25-195</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-333</t>
+          <t>24-336</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -14340,7 +14340,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>32-259</t>
+          <t>32-262</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -14432,7 +14432,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22-116</t>
+          <t>22-119</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -14524,7 +14524,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>27-191</t>
+          <t>27-194</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -14616,7 +14616,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23-305</t>
+          <t>23-308</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -14708,7 +14708,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28-168</t>
+          <t>28-171</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -14800,7 +14800,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-121</t>
+          <t>28-124</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -14892,7 +14892,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22-191</t>
+          <t>22-194</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -14984,7 +14984,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-272</t>
+          <t>27-275</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -15076,7 +15076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-049</t>
+          <t>23-052</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -15168,7 +15168,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>28-206</t>
+          <t>28-209</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -15260,7 +15260,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26-331</t>
+          <t>26-334</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19-012</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24-227</t>
+          <t>24-230</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -15536,7 +15536,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-339</t>
+          <t>23-342</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19-050</t>
+          <t>19-053</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -15720,7 +15720,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>31-334</t>
+          <t>31-337</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37-007</t>
+          <t>37-010</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -15904,7 +15904,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>29-018</t>
+          <t>29-021</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -15996,7 +15996,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>22-011</t>
+          <t>22-014</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -16088,7 +16088,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20-116</t>
+          <t>20-119</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -16180,7 +16180,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26-186</t>
+          <t>26-189</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -16272,7 +16272,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19-331</t>
+          <t>19-334</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -16364,7 +16364,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17-225</t>
+          <t>17-228</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -16548,7 +16548,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26-075</t>
+          <t>26-078</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28-098</t>
+          <t>28-101</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -16732,7 +16732,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>21-000</t>
+          <t>21-003</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -16824,7 +16824,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19-338</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -16916,7 +16916,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19-338</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -17339,7 +17339,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-192</t>
+          <t>25-195</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -17407,7 +17407,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-333</t>
+          <t>24-336</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -17475,7 +17475,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>32-259</t>
+          <t>32-262</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -17543,7 +17543,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22-116</t>
+          <t>22-119</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -17611,7 +17611,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>27-191</t>
+          <t>27-194</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -17679,7 +17679,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23-305</t>
+          <t>23-308</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -17747,7 +17747,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28-168</t>
+          <t>28-171</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -17815,7 +17815,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-121</t>
+          <t>28-124</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -17883,7 +17883,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22-191</t>
+          <t>22-194</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -17951,7 +17951,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-272</t>
+          <t>27-275</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -18019,7 +18019,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-049</t>
+          <t>23-052</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -18087,7 +18087,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>28-206</t>
+          <t>28-209</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -18155,7 +18155,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26-331</t>
+          <t>26-334</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -18223,7 +18223,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19-012</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -18291,7 +18291,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24-227</t>
+          <t>24-230</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -18359,7 +18359,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-339</t>
+          <t>23-342</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -18427,7 +18427,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19-050</t>
+          <t>19-053</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -18495,7 +18495,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>31-334</t>
+          <t>31-337</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -18563,7 +18563,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37-007</t>
+          <t>37-010</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -18631,7 +18631,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>29-018</t>
+          <t>29-021</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -18699,7 +18699,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>22-011</t>
+          <t>22-014</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -18767,7 +18767,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20-116</t>
+          <t>20-119</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -18835,7 +18835,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26-186</t>
+          <t>26-189</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -18903,7 +18903,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19-331</t>
+          <t>19-334</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -18971,7 +18971,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -19039,7 +19039,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17-225</t>
+          <t>17-228</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -19107,7 +19107,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26-075</t>
+          <t>26-078</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -19175,7 +19175,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28-098</t>
+          <t>28-101</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -19243,7 +19243,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>21-000</t>
+          <t>21-003</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -19311,7 +19311,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19-338</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -19379,7 +19379,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19-338</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -19742,7 +19742,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-192</t>
+          <t>25-195</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -19813,7 +19813,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-333</t>
+          <t>24-336</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -19884,7 +19884,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>32-259</t>
+          <t>32-262</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -19955,7 +19955,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22-116</t>
+          <t>22-119</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -20026,7 +20026,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>27-191</t>
+          <t>27-194</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -20097,7 +20097,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23-305</t>
+          <t>23-308</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -20168,7 +20168,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28-168</t>
+          <t>28-171</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -20239,7 +20239,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-121</t>
+          <t>28-124</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -20310,7 +20310,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22-191</t>
+          <t>22-194</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -20381,7 +20381,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-272</t>
+          <t>27-275</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -20452,7 +20452,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-049</t>
+          <t>23-052</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -20523,7 +20523,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>28-206</t>
+          <t>28-209</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -20594,7 +20594,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26-331</t>
+          <t>26-334</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -20665,7 +20665,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19-012</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -20736,7 +20736,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24-227</t>
+          <t>24-230</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -20807,7 +20807,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-339</t>
+          <t>23-342</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -20878,7 +20878,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19-050</t>
+          <t>19-053</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -20949,7 +20949,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>31-334</t>
+          <t>31-337</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37-007</t>
+          <t>37-010</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -21091,7 +21091,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>29-018</t>
+          <t>29-021</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -21162,7 +21162,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>22-011</t>
+          <t>22-014</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -21233,7 +21233,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20-116</t>
+          <t>20-119</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26-186</t>
+          <t>26-189</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -21375,7 +21375,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19-331</t>
+          <t>19-334</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -21446,7 +21446,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -21517,7 +21517,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17-225</t>
+          <t>17-228</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -21588,7 +21588,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26-075</t>
+          <t>26-078</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -21659,7 +21659,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28-098</t>
+          <t>28-101</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -21730,7 +21730,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>21-000</t>
+          <t>21-003</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -21801,7 +21801,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19-338</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -21872,7 +21872,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19-338</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -22241,7 +22241,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-192</t>
+          <t>25-195</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-333</t>
+          <t>24-336</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -22383,7 +22383,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>32-259</t>
+          <t>32-262</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -22454,7 +22454,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22-116</t>
+          <t>22-119</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -22525,7 +22525,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>27-191</t>
+          <t>27-194</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -22596,7 +22596,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23-305</t>
+          <t>23-308</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -22667,7 +22667,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28-168</t>
+          <t>28-171</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-121</t>
+          <t>28-124</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -22807,7 +22807,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22-191</t>
+          <t>22-194</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -22878,7 +22878,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-272</t>
+          <t>27-275</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -22949,7 +22949,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-049</t>
+          <t>23-052</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -23020,7 +23020,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>28-206</t>
+          <t>28-209</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -23091,7 +23091,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26-331</t>
+          <t>26-334</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -23162,7 +23162,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19-012</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -23233,7 +23233,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24-227</t>
+          <t>24-230</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -23304,7 +23304,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-339</t>
+          <t>23-342</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -23375,7 +23375,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19-050</t>
+          <t>19-053</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -23446,7 +23446,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>31-334</t>
+          <t>31-337</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -23517,7 +23517,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37-007</t>
+          <t>37-010</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -23588,7 +23588,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>29-018</t>
+          <t>29-021</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -23659,7 +23659,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>22-011</t>
+          <t>22-014</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -23730,7 +23730,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20-116</t>
+          <t>20-119</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -23801,7 +23801,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26-186</t>
+          <t>26-189</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -23872,7 +23872,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19-331</t>
+          <t>19-334</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -23943,7 +23943,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -24012,7 +24012,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17-225</t>
+          <t>17-228</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -24083,7 +24083,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26-075</t>
+          <t>26-078</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -24152,7 +24152,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28-098</t>
+          <t>28-101</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -24223,7 +24223,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>21-000</t>
+          <t>21-003</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -24292,7 +24292,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19-338</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19-338</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -24767,7 +24767,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-192</t>
+          <t>25-195</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -24856,7 +24856,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-333</t>
+          <t>24-336</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -24945,7 +24945,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>32-259</t>
+          <t>32-262</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -25034,7 +25034,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22-116</t>
+          <t>22-119</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -25123,7 +25123,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>27-191</t>
+          <t>27-194</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -25212,7 +25212,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23-305</t>
+          <t>23-308</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -25301,7 +25301,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28-168</t>
+          <t>28-171</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -25390,7 +25390,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-121</t>
+          <t>28-124</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -25479,7 +25479,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22-191</t>
+          <t>22-194</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -25568,7 +25568,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-272</t>
+          <t>27-275</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -25657,7 +25657,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-049</t>
+          <t>23-052</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -25746,7 +25746,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>28-206</t>
+          <t>28-209</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -25835,7 +25835,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26-331</t>
+          <t>26-334</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -25924,7 +25924,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19-012</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -26013,7 +26013,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24-227</t>
+          <t>24-230</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -26102,7 +26102,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-339</t>
+          <t>23-342</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -26191,7 +26191,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19-050</t>
+          <t>19-053</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -26280,7 +26280,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>31-334</t>
+          <t>31-337</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -26369,7 +26369,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37-007</t>
+          <t>37-010</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -26458,7 +26458,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>29-018</t>
+          <t>29-021</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -26547,7 +26547,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>22-011</t>
+          <t>22-014</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -26632,7 +26632,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20-116</t>
+          <t>20-119</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -26721,7 +26721,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26-186</t>
+          <t>26-189</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -26810,7 +26810,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19-331</t>
+          <t>19-334</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -26899,7 +26899,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -26988,7 +26988,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17-225</t>
+          <t>17-228</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -27077,7 +27077,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26-075</t>
+          <t>26-078</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -27162,7 +27162,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28-098</t>
+          <t>28-101</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -27251,7 +27251,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>21-000</t>
+          <t>21-003</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -27336,7 +27336,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19-338</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -27421,7 +27421,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19-338</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -27920,7 +27920,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-192</t>
+          <t>25-195</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -28027,7 +28027,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-333</t>
+          <t>24-336</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -28134,7 +28134,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>32-259</t>
+          <t>32-262</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -28241,7 +28241,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22-116</t>
+          <t>22-119</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -28348,7 +28348,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>27-191</t>
+          <t>27-194</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -28455,7 +28455,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23-305</t>
+          <t>23-308</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -28562,7 +28562,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28-168</t>
+          <t>28-171</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -28669,7 +28669,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-121</t>
+          <t>28-124</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -28776,7 +28776,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22-191</t>
+          <t>22-194</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -28883,7 +28883,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-272</t>
+          <t>27-275</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -28990,7 +28990,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-049</t>
+          <t>23-052</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -29097,7 +29097,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>28-206</t>
+          <t>28-209</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -29204,7 +29204,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26-331</t>
+          <t>26-334</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -29311,7 +29311,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19-012</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -29418,7 +29418,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24-227</t>
+          <t>24-230</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -29525,7 +29525,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-339</t>
+          <t>23-342</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -29632,7 +29632,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19-050</t>
+          <t>19-053</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -29739,7 +29739,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>31-334</t>
+          <t>31-337</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -29846,7 +29846,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37-007</t>
+          <t>37-010</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -29953,7 +29953,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>29-018</t>
+          <t>29-021</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -30060,7 +30060,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>22-011</t>
+          <t>22-014</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -30167,7 +30167,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20-116</t>
+          <t>20-119</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -30274,7 +30274,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26-186</t>
+          <t>26-189</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -30381,7 +30381,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19-331</t>
+          <t>19-334</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -30488,7 +30488,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -30595,7 +30595,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17-225</t>
+          <t>17-228</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -30702,7 +30702,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26-075</t>
+          <t>26-078</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -30809,7 +30809,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28-098</t>
+          <t>28-101</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -30916,7 +30916,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>21-000</t>
+          <t>21-003</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -31023,7 +31023,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19-338</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -31130,7 +31130,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19-338</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -31237,7 +31237,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>19-087</t>
+          <t>19-090</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -31290,7 +31290,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>20-276</t>
+          <t>20-279</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -31343,7 +31343,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>20-235</t>
+          <t>20-238</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -31396,7 +31396,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>17-014</t>
+          <t>17-017</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -31449,7 +31449,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>19-196</t>
+          <t>19-199</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -31502,7 +31502,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>18-342</t>
+          <t>18-345</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -31555,7 +31555,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>18-066</t>
+          <t>18-069</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -31608,7 +31608,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>26-173</t>
+          <t>26-176</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -31661,7 +31661,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>16-174</t>
+          <t>16-177</t>
         </is>
       </c>
       <c r="E43" t="n">
